--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.0.xlsx
@@ -34,114 +34,117 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>שלום.</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>הורה:</t>
+  </si>
+  <si>
+    <t>גב' רונן</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>שלום.</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>הורה:</t>
-  </si>
-  <si>
-    <t>גב' רונן</t>
-  </si>
-  <si>
     <t>יעל.</t>
   </si>
   <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>יעל נעים מאוד.</t>
+  </si>
+  <si>
+    <t>(לא נשמע).</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>כן, יואב.</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>הוא הגיע אתך.</t>
+  </si>
+  <si>
+    <t>הגענו אתמול כבר.</t>
+  </si>
+  <si>
+    <t>אה אתמול הגעתם?</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>אוקי, עשינו לו כמה בדיקות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לי מרגיש כמו משהו ויראלי אני חושבת שאת יודעת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כל הבחילות האלה שהוא מרגיש ועייפות והתשישות הזאתי </t>
+  </si>
+  <si>
+    <t>זה הרגיש כזה שזה משהו לא יודעת ... יש לו גם ילדים בכיתה שהם גם באותו.</t>
+  </si>
+  <si>
+    <t>אבל זה לא לאחרונה.</t>
+  </si>
+  <si>
+    <t>אם זה לא לאחרונה?</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
+  </si>
+  <si>
+    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
+  </si>
+  <si>
+    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
+  </si>
+  <si>
+    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>ליואב?</t>
+  </si>
+  <si>
+    <t>ליואב סכרת?</t>
+  </si>
+  <si>
     <t>disagree</t>
   </si>
   <si>
-    <t>יעל נעים מאוד.</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>(לא נשמע).</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>כן, יואב.</t>
-  </si>
-  <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>הוא הגיע אתך.</t>
-  </si>
-  <si>
-    <t>הגענו אתמול כבר.</t>
-  </si>
-  <si>
-    <t>אה אתמול הגעתם?</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>אוקי, עשינו לו כמה בדיקות.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לי מרגיש כמו משהו ויראלי אני חושבת שאת יודעת </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כל הבחילות האלה שהוא מרגיש ועייפות והתשישות הזאתי </t>
-  </si>
-  <si>
-    <t>זה הרגיש כזה שזה משהו לא יודעת ... יש לו גם ילדים בכיתה שהם גם באותו.</t>
-  </si>
-  <si>
-    <t>אבל זה לא לאחרונה.</t>
-  </si>
-  <si>
-    <t>אם זה לא לאחרונה?</t>
-  </si>
-  <si>
-    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
-  </si>
-  <si>
-    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
-  </si>
-  <si>
-    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
-  </si>
-  <si>
-    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>ליואב?</t>
-  </si>
-  <si>
-    <t>ליואב סכרת?</t>
-  </si>
-  <si>
     <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>אני פשוט, אני לא אני בהלם כי.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
@@ -751,38 +751,38 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -796,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -807,38 +807,38 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -846,55 +846,55 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -902,97 +902,97 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1003,24 +1003,24 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1031,10 +1031,10 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1042,13 +1042,13 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1056,13 +1056,13 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1070,13 +1070,13 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1084,13 +1084,13 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1098,13 +1098,13 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1112,13 +1112,13 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1126,13 +1126,13 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1140,46 +1140,46 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -1188,63 +1188,63 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1252,209 +1252,209 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1465,10 +1465,10 @@
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1476,13 +1476,13 @@
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1493,10 +1493,10 @@
         <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1504,13 +1504,13 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1521,10 +1521,10 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1532,13 +1532,13 @@
         <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1549,10 +1549,10 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1560,27 +1560,27 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
         <v>16</v>
       </c>
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1588,13 +1588,13 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1602,13 +1602,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1619,10 +1619,10 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1630,13 +1630,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1644,13 +1644,13 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1658,13 +1658,13 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1672,13 +1672,13 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1686,13 +1686,13 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1700,13 +1700,13 @@
         <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1717,10 +1717,10 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1728,13 +1728,13 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1742,13 +1742,13 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1756,13 +1756,13 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1770,13 +1770,13 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1784,13 +1784,13 @@
         <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1798,13 +1798,13 @@
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1815,10 +1815,10 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1829,10 +1829,10 @@
         <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1843,10 +1843,10 @@
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1857,10 +1857,10 @@
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1871,10 +1871,10 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1885,10 +1885,10 @@
         <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1896,13 +1896,13 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1910,13 +1910,13 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1924,13 +1924,13 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1938,13 +1938,13 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1952,27 +1952,27 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
         <v>16</v>
       </c>
-      <c r="B89" t="s">
-        <v>17</v>
-      </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1980,13 +1980,13 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1994,13 +1994,13 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2008,13 +2008,13 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2022,13 +2022,13 @@
         <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2036,13 +2036,13 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2050,13 +2050,13 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2067,10 +2067,10 @@
         <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2078,13 +2078,13 @@
         <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2092,13 +2092,13 @@
         <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2109,10 +2109,10 @@
         <v>114</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2120,13 +2120,13 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2134,13 +2134,13 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2148,13 +2148,13 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2162,13 +2162,13 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2176,13 +2176,13 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2190,13 +2190,13 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2207,10 +2207,10 @@
         <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2221,10 +2221,10 @@
         <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2235,10 +2235,10 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2249,10 +2249,10 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2263,10 +2263,10 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
